--- a/test-data/Metadata_template-example-for-SOCAT-FULL_TEST.xlsx
+++ b/test-data/Metadata_template-example-for-SOCAT-FULL_TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamb/oxy-work/OMD/OAPMetadataEditor/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D889B3-C7D2-8542-9A6E-15C6A0FAB974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCD8E48-AF59-EC44-9AEC-E864307C6E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26180" yWindow="460" windowWidth="24060" windowHeight="26560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3729,15 +3729,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3839,6 +3830,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4132,8 +4132,8 @@
   </sheetPr>
   <dimension ref="A1:X267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A254" sqref="A254:C267"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4148,12 +4148,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="244" t="s">
         <v>532</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="210"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="246"/>
       <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4178,7 +4178,7 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="211" t="s">
+      <c r="C3" s="208" t="s">
         <v>583</v>
       </c>
       <c r="D3" s="109">
@@ -4318,7 +4318,7 @@
       <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="212" t="s">
+      <c r="C8" s="209" t="s">
         <v>588</v>
       </c>
       <c r="D8" s="103">
@@ -4346,7 +4346,7 @@
       <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="211" t="s">
+      <c r="C9" s="208" t="s">
         <v>589</v>
       </c>
       <c r="D9" s="70">
@@ -4374,7 +4374,7 @@
       <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="213" t="s">
+      <c r="C10" s="210" t="s">
         <v>590</v>
       </c>
       <c r="D10" s="71" t="s">
@@ -4402,7 +4402,7 @@
       <c r="B11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="211" t="s">
+      <c r="C11" s="208" t="s">
         <v>591</v>
       </c>
       <c r="D11" s="70">
@@ -4458,7 +4458,7 @@
       <c r="B13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="214" t="s">
+      <c r="C13" s="211" t="s">
         <v>593</v>
       </c>
       <c r="D13" s="70">
@@ -4486,7 +4486,7 @@
       <c r="B14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="215" t="s">
+      <c r="C14" s="212" t="s">
         <v>594</v>
       </c>
       <c r="D14" s="70">
@@ -4514,7 +4514,7 @@
       <c r="B15" s="139" t="s">
         <v>537</v>
       </c>
-      <c r="C15" s="216" t="s">
+      <c r="C15" s="213" t="s">
         <v>192</v>
       </c>
       <c r="D15" s="145">
@@ -4542,7 +4542,7 @@
       <c r="B16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="212" t="s">
+      <c r="C16" s="209" t="s">
         <v>595</v>
       </c>
       <c r="D16" s="107">
@@ -4570,7 +4570,7 @@
       <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="211" t="s">
+      <c r="C17" s="208" t="s">
         <v>596</v>
       </c>
       <c r="D17" s="71">
@@ -4598,7 +4598,7 @@
       <c r="B18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="213" t="s">
+      <c r="C18" s="210" t="s">
         <v>597</v>
       </c>
       <c r="D18" s="71" t="s">
@@ -4626,7 +4626,7 @@
       <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="211" t="s">
+      <c r="C19" s="208" t="s">
         <v>598</v>
       </c>
       <c r="D19" s="71">
@@ -4682,7 +4682,7 @@
       <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="214" t="s">
+      <c r="C21" s="211" t="s">
         <v>600</v>
       </c>
       <c r="D21" s="71">
@@ -4710,7 +4710,7 @@
       <c r="B22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="215" t="s">
+      <c r="C22" s="212" t="s">
         <v>601</v>
       </c>
       <c r="D22" s="71">
@@ -4738,7 +4738,7 @@
       <c r="B23" s="149" t="s">
         <v>534</v>
       </c>
-      <c r="C23" s="216" t="s">
+      <c r="C23" s="213" t="s">
         <v>193</v>
       </c>
       <c r="D23" s="150">
@@ -4766,7 +4766,7 @@
       <c r="B24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="217"/>
+      <c r="C24" s="214"/>
       <c r="D24" s="107">
         <v>6.1</v>
       </c>
@@ -4792,7 +4792,7 @@
       <c r="B25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="211"/>
+      <c r="C25" s="208"/>
       <c r="D25" s="71">
         <v>6.2</v>
       </c>
@@ -4818,7 +4818,7 @@
       <c r="B26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="213"/>
+      <c r="C26" s="210"/>
       <c r="D26" s="71" t="s">
         <v>12</v>
       </c>
@@ -4844,7 +4844,7 @@
       <c r="B27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="211"/>
+      <c r="C27" s="208"/>
       <c r="D27" s="71">
         <v>6.4</v>
       </c>
@@ -4896,7 +4896,7 @@
       <c r="B29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="218"/>
+      <c r="C29" s="215"/>
       <c r="D29" s="71">
         <v>6.6</v>
       </c>
@@ -4922,7 +4922,7 @@
       <c r="B30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="219"/>
+      <c r="C30" s="216"/>
       <c r="D30" s="71">
         <v>6.7</v>
       </c>
@@ -4948,7 +4948,7 @@
       <c r="B31" s="149" t="s">
         <v>535</v>
       </c>
-      <c r="C31" s="216"/>
+      <c r="C31" s="213"/>
       <c r="D31" s="150">
         <v>6.8</v>
       </c>
@@ -4974,7 +4974,7 @@
       <c r="B32" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="212" t="s">
+      <c r="C32" s="209" t="s">
         <v>602</v>
       </c>
       <c r="D32" s="103">
@@ -5002,7 +5002,7 @@
       <c r="B33" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="211" t="s">
+      <c r="C33" s="208" t="s">
         <v>603</v>
       </c>
       <c r="D33" s="70">
@@ -5030,7 +5030,7 @@
       <c r="B34" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="213" t="s">
+      <c r="C34" s="210" t="s">
         <v>604</v>
       </c>
       <c r="D34" s="71">
@@ -5058,7 +5058,7 @@
       <c r="B35" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="211" t="s">
+      <c r="C35" s="208" t="s">
         <v>605</v>
       </c>
       <c r="D35" s="70">
@@ -5114,7 +5114,7 @@
       <c r="B37" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="214" t="s">
+      <c r="C37" s="211" t="s">
         <v>607</v>
       </c>
       <c r="D37" s="70">
@@ -5142,7 +5142,7 @@
       <c r="B38" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="215" t="s">
+      <c r="C38" s="212" t="s">
         <v>608</v>
       </c>
       <c r="D38" s="70">
@@ -5170,7 +5170,7 @@
       <c r="B39" s="153" t="s">
         <v>536</v>
       </c>
-      <c r="C39" s="216" t="s">
+      <c r="C39" s="213" t="s">
         <v>530</v>
       </c>
       <c r="D39" s="140">
@@ -5226,7 +5226,7 @@
       <c r="B41" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="220" t="s">
+      <c r="C41" s="217" t="s">
         <v>610</v>
       </c>
       <c r="D41" s="77">
@@ -5254,7 +5254,7 @@
       <c r="B42" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="221" t="s">
+      <c r="C42" s="218" t="s">
         <v>611</v>
       </c>
       <c r="D42" s="78">
@@ -5310,7 +5310,7 @@
       <c r="B44" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="222" t="s">
+      <c r="C44" s="219" t="s">
         <v>613</v>
       </c>
       <c r="D44" s="74">
@@ -5558,7 +5558,7 @@
       <c r="B53" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="222" t="s">
+      <c r="C53" s="219" t="s">
         <v>617</v>
       </c>
       <c r="D53" s="72">
@@ -5586,7 +5586,7 @@
       <c r="B54" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="223" t="s">
+      <c r="C54" s="220" t="s">
         <v>618</v>
       </c>
       <c r="D54" s="107">
@@ -5614,7 +5614,7 @@
       <c r="B55" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="224" t="s">
+      <c r="C55" s="221" t="s">
         <v>533</v>
       </c>
       <c r="D55" s="181">
@@ -5670,7 +5670,7 @@
       <c r="B57" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="224" t="s">
+      <c r="C57" s="221" t="s">
         <v>204</v>
       </c>
       <c r="D57" s="181">
@@ -5726,7 +5726,7 @@
       <c r="B59" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="225" t="s">
+      <c r="C59" s="222" t="s">
         <v>306</v>
       </c>
       <c r="D59" s="150">
@@ -5810,7 +5810,7 @@
       <c r="B62" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="224" t="s">
+      <c r="C62" s="221" t="s">
         <v>203</v>
       </c>
       <c r="D62" s="156">
@@ -5838,7 +5838,7 @@
       <c r="B63" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="212" t="s">
+      <c r="C63" s="209" t="s">
         <v>623</v>
       </c>
       <c r="D63" s="76">
@@ -5894,7 +5894,7 @@
       <c r="B65" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="222" t="s">
+      <c r="C65" s="219" t="s">
         <v>625</v>
       </c>
       <c r="D65" s="78">
@@ -5922,7 +5922,7 @@
       <c r="B66" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="211" t="s">
+      <c r="C66" s="208" t="s">
         <v>626</v>
       </c>
       <c r="D66" s="105">
@@ -5950,7 +5950,7 @@
       <c r="B67" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="226" t="s">
+      <c r="C67" s="223" t="s">
         <v>209</v>
       </c>
       <c r="D67" s="158">
@@ -8913,7 +8913,7 @@
         <v>550</v>
       </c>
       <c r="C180" s="166" t="s">
-        <v>238</v>
+        <v>509</v>
       </c>
       <c r="D180" s="190">
         <v>24.9</v>
@@ -9080,7 +9080,7 @@
       <c r="B186" s="149" t="s">
         <v>555</v>
       </c>
-      <c r="C186" s="224" t="s">
+      <c r="C186" s="221" t="s">
         <v>294</v>
       </c>
       <c r="D186" s="191">
@@ -9500,7 +9500,7 @@
       <c r="B201" s="28" t="s">
         <v>570</v>
       </c>
-      <c r="C201" s="227" t="s">
+      <c r="C201" s="224" t="s">
         <v>658</v>
       </c>
       <c r="D201" s="31">
@@ -9528,7 +9528,7 @@
       <c r="B202" s="149" t="s">
         <v>571</v>
       </c>
-      <c r="C202" s="228" t="s">
+      <c r="C202" s="225" t="s">
         <v>228</v>
       </c>
       <c r="D202" s="191">
@@ -9808,7 +9808,7 @@
       <c r="B212" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="C212" s="227" t="s">
+      <c r="C212" s="224" t="s">
         <v>666</v>
       </c>
       <c r="D212" s="111">
@@ -9836,7 +9836,7 @@
       <c r="B213" s="22" t="s">
         <v>581</v>
       </c>
-      <c r="C213" s="229" t="s">
+      <c r="C213" s="226" t="s">
         <v>667</v>
       </c>
       <c r="D213" s="98">
@@ -9864,7 +9864,7 @@
       <c r="B214" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C214" s="211" t="s">
+      <c r="C214" s="208" t="s">
         <v>668</v>
       </c>
       <c r="D214" s="103">
@@ -9892,7 +9892,7 @@
       <c r="B215" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="C215" s="230" t="s">
+      <c r="C215" s="227" t="s">
         <v>211</v>
       </c>
       <c r="D215" s="162">
@@ -9920,7 +9920,7 @@
       <c r="B216" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="C216" s="211" t="s">
+      <c r="C216" s="208" t="s">
         <v>669</v>
       </c>
       <c r="D216" s="163">
@@ -9947,7 +9947,7 @@
       <c r="B217" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="C217" s="230" t="s">
+      <c r="C217" s="227" t="s">
         <v>241</v>
       </c>
       <c r="D217" s="193">
@@ -9974,7 +9974,7 @@
       <c r="B218" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="C218" s="211" t="s">
+      <c r="C218" s="208" t="s">
         <v>670</v>
       </c>
       <c r="D218" s="162">
@@ -10030,7 +10030,7 @@
       <c r="B220" s="149" t="s">
         <v>166</v>
       </c>
-      <c r="C220" s="231" t="s">
+      <c r="C220" s="228" t="s">
         <v>509</v>
       </c>
       <c r="D220" s="181">
@@ -10058,7 +10058,7 @@
       <c r="B221" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="C221" s="232" t="s">
+      <c r="C221" s="229" t="s">
         <v>672</v>
       </c>
       <c r="D221" s="79">
@@ -10086,7 +10086,7 @@
       <c r="B222" s="149" t="s">
         <v>516</v>
       </c>
-      <c r="C222" s="233" t="s">
+      <c r="C222" s="230" t="s">
         <v>462</v>
       </c>
       <c r="D222" s="181">
@@ -10114,7 +10114,7 @@
       <c r="B223" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C223" s="234" t="s">
+      <c r="C223" s="231" t="s">
         <v>673</v>
       </c>
       <c r="D223" s="30">
@@ -10142,7 +10142,7 @@
       <c r="B224" s="149" t="s">
         <v>164</v>
       </c>
-      <c r="C224" s="228">
+      <c r="C224" s="225">
         <v>1</v>
       </c>
       <c r="D224" s="185">
@@ -10170,7 +10170,7 @@
       <c r="B225" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C225" s="227" t="s">
+      <c r="C225" s="224" t="s">
         <v>674</v>
       </c>
       <c r="D225" s="111">
@@ -10198,7 +10198,7 @@
       <c r="B226" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C226" s="229" t="s">
+      <c r="C226" s="226" t="s">
         <v>675</v>
       </c>
       <c r="D226" s="116">
@@ -10226,7 +10226,7 @@
       <c r="B227" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C227" s="211" t="s">
+      <c r="C227" s="208" t="s">
         <v>676</v>
       </c>
       <c r="D227" s="103">
@@ -10254,7 +10254,7 @@
       <c r="B228" s="139" t="s">
         <v>170</v>
       </c>
-      <c r="C228" s="230" t="s">
+      <c r="C228" s="227" t="s">
         <v>211</v>
       </c>
       <c r="D228" s="163">
@@ -10282,7 +10282,7 @@
       <c r="B229" s="139" t="s">
         <v>171</v>
       </c>
-      <c r="C229" s="211" t="s">
+      <c r="C229" s="208" t="s">
         <v>677</v>
       </c>
       <c r="D229" s="163">
@@ -10310,7 +10310,7 @@
       <c r="B230" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="C230" s="230" t="s">
+      <c r="C230" s="227" t="s">
         <v>241</v>
       </c>
       <c r="D230" s="163">
@@ -10338,7 +10338,7 @@
       <c r="B231" s="139" t="s">
         <v>173</v>
       </c>
-      <c r="C231" s="211" t="s">
+      <c r="C231" s="208" t="s">
         <v>678</v>
       </c>
       <c r="D231" s="163">
@@ -10394,7 +10394,7 @@
       <c r="B233" s="149" t="s">
         <v>177</v>
       </c>
-      <c r="C233" s="231" t="s">
+      <c r="C233" s="228" t="s">
         <v>509</v>
       </c>
       <c r="D233" s="181">
@@ -10422,7 +10422,7 @@
       <c r="B234" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="C234" s="232" t="s">
+      <c r="C234" s="229" t="s">
         <v>680</v>
       </c>
       <c r="D234" s="71">
@@ -10450,7 +10450,7 @@
       <c r="B235" s="149" t="s">
         <v>518</v>
       </c>
-      <c r="C235" s="233" t="s">
+      <c r="C235" s="230" t="s">
         <v>462</v>
       </c>
       <c r="D235" s="181">
@@ -10478,7 +10478,7 @@
       <c r="B236" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C236" s="234" t="s">
+      <c r="C236" s="231" t="s">
         <v>681</v>
       </c>
       <c r="D236" s="27">
@@ -10506,7 +10506,7 @@
       <c r="B237" s="149" t="s">
         <v>175</v>
       </c>
-      <c r="C237" s="228">
+      <c r="C237" s="225">
         <v>1</v>
       </c>
       <c r="D237" s="185">
@@ -10534,7 +10534,7 @@
       <c r="B238" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C238" s="227" t="s">
+      <c r="C238" s="224" t="s">
         <v>682</v>
       </c>
       <c r="D238" s="111">
@@ -10562,7 +10562,7 @@
       <c r="B239" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C239" s="229" t="s">
+      <c r="C239" s="226" t="s">
         <v>683</v>
       </c>
       <c r="D239" s="98">
@@ -10590,7 +10590,7 @@
       <c r="B240" s="118" t="s">
         <v>180</v>
       </c>
-      <c r="C240" s="212" t="s">
+      <c r="C240" s="209" t="s">
         <v>684</v>
       </c>
       <c r="D240" s="103">
@@ -10618,7 +10618,7 @@
       <c r="B241" s="119" t="s">
         <v>181</v>
       </c>
-      <c r="C241" s="211" t="s">
+      <c r="C241" s="208" t="s">
         <v>685</v>
       </c>
       <c r="D241" s="70">
@@ -10646,7 +10646,7 @@
       <c r="B242" s="160" t="s">
         <v>182</v>
       </c>
-      <c r="C242" s="230" t="s">
+      <c r="C242" s="227" t="s">
         <v>211</v>
       </c>
       <c r="D242" s="162">
@@ -10674,7 +10674,7 @@
       <c r="B243" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="C243" s="211" t="s">
+      <c r="C243" s="208" t="s">
         <v>686</v>
       </c>
       <c r="D243" s="70">
@@ -10702,7 +10702,7 @@
       <c r="B244" s="160" t="s">
         <v>184</v>
       </c>
-      <c r="C244" s="230" t="s">
+      <c r="C244" s="227" t="s">
         <v>241</v>
       </c>
       <c r="D244" s="163">
@@ -10730,7 +10730,7 @@
       <c r="B245" s="160" t="s">
         <v>185</v>
       </c>
-      <c r="C245" s="211" t="s">
+      <c r="C245" s="208" t="s">
         <v>687</v>
       </c>
       <c r="D245" s="162">
@@ -10786,7 +10786,7 @@
       <c r="B247" s="168" t="s">
         <v>189</v>
       </c>
-      <c r="C247" s="231" t="s">
+      <c r="C247" s="228" t="s">
         <v>509</v>
       </c>
       <c r="D247" s="181">
@@ -10814,7 +10814,7 @@
       <c r="B248" s="120" t="s">
         <v>519</v>
       </c>
-      <c r="C248" s="232" t="s">
+      <c r="C248" s="229" t="s">
         <v>689</v>
       </c>
       <c r="D248" s="71">
@@ -10842,7 +10842,7 @@
       <c r="B249" s="168" t="s">
         <v>520</v>
       </c>
-      <c r="C249" s="233" t="s">
+      <c r="C249" s="230" t="s">
         <v>462</v>
       </c>
       <c r="D249" s="182">
@@ -10870,7 +10870,7 @@
       <c r="B250" s="120" t="s">
         <v>188</v>
       </c>
-      <c r="C250" s="234" t="s">
+      <c r="C250" s="231" t="s">
         <v>690</v>
       </c>
       <c r="D250" s="27">
@@ -10898,7 +10898,7 @@
       <c r="B251" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="C251" s="228">
+      <c r="C251" s="225">
         <v>1</v>
       </c>
       <c r="D251" s="182">
@@ -10926,7 +10926,7 @@
       <c r="B252" s="120" t="s">
         <v>190</v>
       </c>
-      <c r="C252" s="227" t="s">
+      <c r="C252" s="224" t="s">
         <v>691</v>
       </c>
       <c r="D252" s="27">
@@ -10954,7 +10954,7 @@
       <c r="B253" s="121" t="s">
         <v>191</v>
       </c>
-      <c r="C253" s="229" t="s">
+      <c r="C253" s="226" t="s">
         <v>692</v>
       </c>
       <c r="D253" s="98">
@@ -10976,76 +10976,76 @@
       <c r="R253" s="16"/>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A254" s="235">
+      <c r="A254" s="232">
         <v>227</v>
       </c>
-      <c r="B254" s="236" t="s">
+      <c r="B254" s="233" t="s">
         <v>693</v>
       </c>
-      <c r="C254" s="212" t="s">
+      <c r="C254" s="209" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A255" s="237">
+      <c r="A255" s="234">
         <v>228</v>
       </c>
-      <c r="B255" s="238" t="s">
+      <c r="B255" s="235" t="s">
         <v>695</v>
       </c>
-      <c r="C255" s="211" t="s">
+      <c r="C255" s="208" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A256" s="239">
+      <c r="A256" s="236">
         <v>229</v>
       </c>
-      <c r="B256" s="240" t="s">
+      <c r="B256" s="237" t="s">
         <v>697</v>
       </c>
-      <c r="C256" s="230" t="s">
+      <c r="C256" s="227" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="237">
+      <c r="A257" s="234">
         <v>230</v>
       </c>
-      <c r="B257" s="238" t="s">
+      <c r="B257" s="235" t="s">
         <v>698</v>
       </c>
-      <c r="C257" s="211" t="s">
+      <c r="C257" s="208" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="239">
+      <c r="A258" s="236">
         <v>231</v>
       </c>
-      <c r="B258" s="240" t="s">
+      <c r="B258" s="237" t="s">
         <v>700</v>
       </c>
-      <c r="C258" s="230" t="s">
+      <c r="C258" s="227" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="237">
+      <c r="A259" s="234">
         <v>232</v>
       </c>
-      <c r="B259" s="238" t="s">
+      <c r="B259" s="235" t="s">
         <v>701</v>
       </c>
-      <c r="C259" s="211" t="s">
+      <c r="C259" s="208" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="241">
+      <c r="A260" s="238">
         <v>233</v>
       </c>
-      <c r="B260" s="242" t="s">
+      <c r="B260" s="239" t="s">
         <v>703</v>
       </c>
       <c r="C260" s="196" t="s">
@@ -11053,79 +11053,79 @@
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="243">
+      <c r="A261" s="240">
         <v>234</v>
       </c>
-      <c r="B261" s="244" t="s">
+      <c r="B261" s="241" t="s">
         <v>705</v>
       </c>
-      <c r="C261" s="231" t="s">
+      <c r="C261" s="228" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="241">
+      <c r="A262" s="238">
         <v>235</v>
       </c>
-      <c r="B262" s="242" t="s">
+      <c r="B262" s="239" t="s">
         <v>706</v>
       </c>
-      <c r="C262" s="232" t="s">
+      <c r="C262" s="229" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="243">
+      <c r="A263" s="240">
         <v>236</v>
       </c>
-      <c r="B263" s="244" t="s">
+      <c r="B263" s="241" t="s">
         <v>708</v>
       </c>
-      <c r="C263" s="233" t="s">
+      <c r="C263" s="230" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="241">
+      <c r="A264" s="238">
         <v>237</v>
       </c>
-      <c r="B264" s="242" t="s">
+      <c r="B264" s="239" t="s">
         <v>709</v>
       </c>
-      <c r="C264" s="234" t="s">
+      <c r="C264" s="231" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="243">
+      <c r="A265" s="240">
         <v>238</v>
       </c>
-      <c r="B265" s="244" t="s">
+      <c r="B265" s="241" t="s">
         <v>711</v>
       </c>
-      <c r="C265" s="228">
+      <c r="C265" s="225">
         <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="241">
+      <c r="A266" s="238">
         <v>239</v>
       </c>
-      <c r="B266" s="242" t="s">
+      <c r="B266" s="239" t="s">
         <v>712</v>
       </c>
-      <c r="C266" s="227" t="s">
+      <c r="C266" s="224" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="245">
+      <c r="A267" s="242">
         <v>240</v>
       </c>
-      <c r="B267" s="246" t="s">
+      <c r="B267" s="243" t="s">
         <v>714</v>
       </c>
-      <c r="C267" s="229" t="s">
+      <c r="C267" s="226" t="s">
         <v>715</v>
       </c>
     </row>

--- a/test-data/Metadata_template-example-for-SOCAT-FULL_TEST.xlsx
+++ b/test-data/Metadata_template-example-for-SOCAT-FULL_TEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamb/oxy-work/OMD/OAPMetadataEditor/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCD8E48-AF59-EC44-9AEC-E864307C6E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729AFA57-35AE-4C45-95E3-6EED89CE8D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26180" yWindow="460" windowWidth="24060" windowHeight="26560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25020" yWindow="460" windowWidth="24060" windowHeight="26560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -2365,18 +2365,12 @@
     <t>platform name</t>
   </si>
   <si>
-    <t>platform ID</t>
-  </si>
-  <si>
     <t>platform owner</t>
   </si>
   <si>
     <t>expocode</t>
   </si>
   <si>
-    <t>cruise ID</t>
-  </si>
-  <si>
     <t>Doe, Jack; Doette, Jill; Doolittle, Johnny</t>
   </si>
   <si>
@@ -2419,9 +2413,6 @@
     <t>fpxC uncertainty</t>
   </si>
   <si>
-    <t>fpxCo2 how was pressure inside eq measured</t>
-  </si>
-  <si>
     <t>fpxCo2 how was total pressure measured</t>
   </si>
   <si>
@@ -2464,9 +2455,6 @@
     <t>fpxCo2 equilibrator headspace flow rate</t>
   </si>
   <si>
-    <t>fpxCo2 how was temp inside equilibrator measured</t>
-  </si>
-  <si>
     <t>fpxCo2 drying method</t>
   </si>
   <si>
@@ -2654,6 +2642,18 @@
   </si>
   <si>
     <t>Var2 changes to method</t>
+  </si>
+  <si>
+    <t>fpxCo2 how was pressure inside eq measured (which sensor)</t>
+  </si>
+  <si>
+    <t>fpxCo2 how was temp inside equilibrator measured  (which sensor)</t>
+  </si>
+  <si>
+    <t>platformID</t>
+  </si>
+  <si>
+    <t>cruiseID</t>
   </si>
 </sst>
 </file>
@@ -4132,8 +4132,8 @@
   </sheetPr>
   <dimension ref="A1:X267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5391,7 +5391,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="196" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D47" s="73">
         <v>12.3</v>
@@ -5419,7 +5419,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="196" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D48" s="73">
         <v>12.4</v>
@@ -5475,7 +5475,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="196" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D50" s="73">
         <v>12.6</v>
@@ -5643,7 +5643,7 @@
         <v>53</v>
       </c>
       <c r="C56" s="196" t="s">
-        <v>619</v>
+        <v>714</v>
       </c>
       <c r="D56" s="71">
         <v>14.3</v>
@@ -5699,7 +5699,7 @@
         <v>55</v>
       </c>
       <c r="C58" s="196" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D58" s="71">
         <v>14.5</v>
@@ -5755,7 +5755,7 @@
         <v>57</v>
       </c>
       <c r="C60" s="196" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D60" s="106">
         <v>15.1</v>
@@ -5783,7 +5783,7 @@
         <v>58</v>
       </c>
       <c r="C61" s="196" t="s">
-        <v>622</v>
+        <v>715</v>
       </c>
       <c r="D61" s="73">
         <v>15.2</v>
@@ -5839,7 +5839,7 @@
         <v>60</v>
       </c>
       <c r="C63" s="209" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D63" s="76">
         <v>16</v>
@@ -5867,7 +5867,7 @@
         <v>61</v>
       </c>
       <c r="C64" s="196" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D64" s="77">
         <v>17</v>
@@ -5895,7 +5895,7 @@
         <v>62</v>
       </c>
       <c r="C65" s="219" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D65" s="78">
         <v>18</v>
@@ -5923,7 +5923,7 @@
         <v>63</v>
       </c>
       <c r="C66" s="208" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D66" s="105">
         <v>19.100000000000001</v>
@@ -7727,7 +7727,7 @@
         <v>541</v>
       </c>
       <c r="C135" s="205" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D135" s="199" t="s">
         <v>539</v>
@@ -7781,7 +7781,7 @@
         <v>538</v>
       </c>
       <c r="C137" s="207" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D137" s="204" t="s">
         <v>539</v>
@@ -7809,7 +7809,7 @@
         <v>540</v>
       </c>
       <c r="C138" s="101" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D138" s="103">
         <v>23.1</v>
@@ -8693,7 +8693,7 @@
         <v>542</v>
       </c>
       <c r="C172" s="101" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D172" s="103">
         <v>24.1</v>
@@ -8805,7 +8805,7 @@
         <v>545</v>
       </c>
       <c r="C176" s="196" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D176" s="71">
         <v>24.5</v>
@@ -8832,7 +8832,7 @@
         <v>546</v>
       </c>
       <c r="C177" s="196" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D177" s="71">
         <v>24.6</v>
@@ -8859,7 +8859,7 @@
         <v>547</v>
       </c>
       <c r="C178" s="186" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D178" s="163">
         <v>24.7</v>
@@ -8886,7 +8886,7 @@
         <v>548</v>
       </c>
       <c r="C179" s="196" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D179" s="71">
         <v>24.8</v>
@@ -8941,7 +8941,7 @@
         <v>549</v>
       </c>
       <c r="C181" s="110" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D181" s="27">
         <v>24.1</v>
@@ -8997,7 +8997,7 @@
         <v>552</v>
       </c>
       <c r="C183" s="134" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D183" s="27">
         <v>24.12</v>
@@ -9025,7 +9025,7 @@
         <v>553</v>
       </c>
       <c r="C184" s="196" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D184" s="31">
         <v>24.13</v>
@@ -9053,7 +9053,7 @@
         <v>554</v>
       </c>
       <c r="C185" s="196" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D185" s="27">
         <v>24.14</v>
@@ -9109,7 +9109,7 @@
         <v>556</v>
       </c>
       <c r="C187" s="196" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D187" s="27">
         <v>24.16</v>
@@ -9137,7 +9137,7 @@
         <v>557</v>
       </c>
       <c r="C188" s="196" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D188" s="31">
         <v>24.17</v>
@@ -9165,7 +9165,7 @@
         <v>558</v>
       </c>
       <c r="C189" s="196" t="s">
-        <v>652</v>
+        <v>713</v>
       </c>
       <c r="D189" s="27">
         <v>24.18</v>
@@ -9193,7 +9193,7 @@
         <v>559</v>
       </c>
       <c r="C190" s="206" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D190" s="202" t="s">
         <v>539</v>
@@ -9221,7 +9221,7 @@
         <v>560</v>
       </c>
       <c r="C191" s="206" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D191" s="202" t="s">
         <v>539</v>
@@ -9249,7 +9249,7 @@
         <v>561</v>
       </c>
       <c r="C192" s="100" t="s">
-        <v>637</v>
+        <v>712</v>
       </c>
       <c r="D192" s="31">
         <v>24.19</v>
@@ -9277,7 +9277,7 @@
         <v>562</v>
       </c>
       <c r="C193" s="206" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D193" s="202" t="s">
         <v>539</v>
@@ -9305,7 +9305,7 @@
         <v>563</v>
       </c>
       <c r="C194" s="206" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D194" s="202" t="s">
         <v>539</v>
@@ -9333,7 +9333,7 @@
         <v>564</v>
       </c>
       <c r="C195" s="206" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D195" s="202" t="s">
         <v>539</v>
@@ -9361,7 +9361,7 @@
         <v>565</v>
       </c>
       <c r="C196" s="196" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D196" s="27">
         <v>24.2</v>
@@ -9389,7 +9389,7 @@
         <v>566</v>
       </c>
       <c r="C197" s="196" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D197" s="31">
         <v>24.21</v>
@@ -9417,7 +9417,7 @@
         <v>567</v>
       </c>
       <c r="C198" s="196" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D198" s="27">
         <v>24.22</v>
@@ -9445,7 +9445,7 @@
         <v>568</v>
       </c>
       <c r="C199" s="196" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D199" s="31">
         <v>24.23</v>
@@ -9473,7 +9473,7 @@
         <v>569</v>
       </c>
       <c r="C200" s="196" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D200" s="27">
         <v>24.24</v>
@@ -9501,7 +9501,7 @@
         <v>570</v>
       </c>
       <c r="C201" s="224" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D201" s="31">
         <v>23.25</v>
@@ -9557,7 +9557,7 @@
         <v>582</v>
       </c>
       <c r="C203" s="196" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D203" s="31">
         <v>23.27</v>
@@ -9585,7 +9585,7 @@
         <v>572</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D204" s="202" t="s">
         <v>539</v>
@@ -9613,7 +9613,7 @@
         <v>573</v>
       </c>
       <c r="C205" s="196" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D205" s="31">
         <v>23.28</v>
@@ -9641,7 +9641,7 @@
         <v>574</v>
       </c>
       <c r="C206" s="196" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D206" s="111">
         <v>23.29</v>
@@ -9669,7 +9669,7 @@
         <v>575</v>
       </c>
       <c r="C207" s="196" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D207" s="27">
         <v>23.3</v>
@@ -9697,7 +9697,7 @@
         <v>576</v>
       </c>
       <c r="C208" s="206" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D208" s="202" t="s">
         <v>539</v>
@@ -9725,7 +9725,7 @@
         <v>577</v>
       </c>
       <c r="C209" s="206" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D209" s="202" t="s">
         <v>539</v>
@@ -9753,7 +9753,7 @@
         <v>578</v>
       </c>
       <c r="C210" s="196" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D210" s="111">
         <v>23.31</v>
@@ -9781,7 +9781,7 @@
         <v>579</v>
       </c>
       <c r="C211" s="196" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D211" s="111">
         <v>23.32</v>
@@ -9809,7 +9809,7 @@
         <v>580</v>
       </c>
       <c r="C212" s="224" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D212" s="111">
         <v>23.33</v>
@@ -9837,7 +9837,7 @@
         <v>581</v>
       </c>
       <c r="C213" s="226" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D213" s="98">
         <v>23.34</v>
@@ -9865,7 +9865,7 @@
         <v>158</v>
       </c>
       <c r="C214" s="208" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D214" s="103">
         <v>25.1</v>
@@ -9921,7 +9921,7 @@
         <v>160</v>
       </c>
       <c r="C216" s="208" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D216" s="163">
         <v>25.3</v>
@@ -9975,7 +9975,7 @@
         <v>162</v>
       </c>
       <c r="C218" s="208" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D218" s="162">
         <v>25.5</v>
@@ -10003,7 +10003,7 @@
         <v>163</v>
       </c>
       <c r="C219" s="196" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D219" s="79">
         <v>25.6</v>
@@ -10059,7 +10059,7 @@
         <v>515</v>
       </c>
       <c r="C221" s="229" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D221" s="79">
         <v>25.8</v>
@@ -10115,7 +10115,7 @@
         <v>165</v>
       </c>
       <c r="C223" s="231" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D223" s="30">
         <v>25.1</v>
@@ -10171,7 +10171,7 @@
         <v>167</v>
       </c>
       <c r="C225" s="224" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D225" s="111">
         <v>25.12</v>
@@ -10199,7 +10199,7 @@
         <v>168</v>
       </c>
       <c r="C226" s="226" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D226" s="116">
         <v>25.13</v>
@@ -10227,7 +10227,7 @@
         <v>169</v>
       </c>
       <c r="C227" s="208" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D227" s="103">
         <v>26.1</v>
@@ -10283,7 +10283,7 @@
         <v>171</v>
       </c>
       <c r="C229" s="208" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D229" s="163">
         <v>26.3</v>
@@ -10339,7 +10339,7 @@
         <v>173</v>
       </c>
       <c r="C231" s="208" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D231" s="163">
         <v>26.5</v>
@@ -10367,7 +10367,7 @@
         <v>174</v>
       </c>
       <c r="C232" s="196" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D232" s="71">
         <v>26.6</v>
@@ -10423,7 +10423,7 @@
         <v>517</v>
       </c>
       <c r="C234" s="229" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D234" s="71">
         <v>26.8</v>
@@ -10479,7 +10479,7 @@
         <v>176</v>
       </c>
       <c r="C236" s="231" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D236" s="27">
         <v>26.1</v>
@@ -10535,7 +10535,7 @@
         <v>178</v>
       </c>
       <c r="C238" s="224" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D238" s="111">
         <v>26.12</v>
@@ -10563,7 +10563,7 @@
         <v>179</v>
       </c>
       <c r="C239" s="226" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D239" s="98">
         <v>26.13</v>
@@ -10591,7 +10591,7 @@
         <v>180</v>
       </c>
       <c r="C240" s="209" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D240" s="103">
         <v>27.1</v>
@@ -10619,7 +10619,7 @@
         <v>181</v>
       </c>
       <c r="C241" s="208" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D241" s="70">
         <v>27.2</v>
@@ -10675,7 +10675,7 @@
         <v>183</v>
       </c>
       <c r="C243" s="208" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D243" s="70">
         <v>27.4</v>
@@ -10731,7 +10731,7 @@
         <v>185</v>
       </c>
       <c r="C245" s="208" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D245" s="162">
         <v>27.6</v>
@@ -10759,7 +10759,7 @@
         <v>186</v>
       </c>
       <c r="C246" s="196" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D246" s="79">
         <v>27.7</v>
@@ -10815,7 +10815,7 @@
         <v>519</v>
       </c>
       <c r="C248" s="229" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D248" s="71">
         <v>27.9</v>
@@ -10871,7 +10871,7 @@
         <v>188</v>
       </c>
       <c r="C250" s="231" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D250" s="27">
         <v>27.11</v>
@@ -10927,7 +10927,7 @@
         <v>190</v>
       </c>
       <c r="C252" s="224" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D252" s="27">
         <v>27.13</v>
@@ -10955,7 +10955,7 @@
         <v>191</v>
       </c>
       <c r="C253" s="226" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D253" s="98">
         <v>27.14</v>
@@ -10980,10 +10980,10 @@
         <v>227</v>
       </c>
       <c r="B254" s="233" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C254" s="209" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.2">
@@ -10991,10 +10991,10 @@
         <v>228</v>
       </c>
       <c r="B255" s="235" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C255" s="208" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.2">
@@ -11002,7 +11002,7 @@
         <v>229</v>
       </c>
       <c r="B256" s="237" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C256" s="227" t="s">
         <v>211</v>
@@ -11013,10 +11013,10 @@
         <v>230</v>
       </c>
       <c r="B257" s="235" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C257" s="208" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -11024,7 +11024,7 @@
         <v>231</v>
       </c>
       <c r="B258" s="237" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C258" s="227" t="s">
         <v>241</v>
@@ -11035,10 +11035,10 @@
         <v>232</v>
       </c>
       <c r="B259" s="235" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C259" s="208" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -11046,10 +11046,10 @@
         <v>233</v>
       </c>
       <c r="B260" s="239" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C260" s="196" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -11057,7 +11057,7 @@
         <v>234</v>
       </c>
       <c r="B261" s="241" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C261" s="228" t="s">
         <v>509</v>
@@ -11068,10 +11068,10 @@
         <v>235</v>
       </c>
       <c r="B262" s="239" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C262" s="229" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -11079,7 +11079,7 @@
         <v>236</v>
       </c>
       <c r="B263" s="241" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C263" s="230" t="s">
         <v>462</v>
@@ -11090,10 +11090,10 @@
         <v>237</v>
       </c>
       <c r="B264" s="239" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C264" s="231" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -11101,7 +11101,7 @@
         <v>238</v>
       </c>
       <c r="B265" s="241" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C265" s="225">
         <v>1</v>
@@ -11112,10 +11112,10 @@
         <v>239</v>
       </c>
       <c r="B266" s="239" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C266" s="224" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -11123,10 +11123,10 @@
         <v>240</v>
       </c>
       <c r="B267" s="243" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C267" s="226" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
